--- a/SPA-Ads-Project-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SPA-Ads-Project-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -670,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,7 +681,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
@@ -836,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
@@ -872,7 +872,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
@@ -931,7 +931,9 @@
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +1231,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/SPA-Ads-Project-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SPA-Ads-Project-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>https://github.com/lyudoGO/SoftUniProjects</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,7 +684,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C34" sqref="C34:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
@@ -1059,7 +1062,9 @@
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -1069,7 +1074,9 @@
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D35" s="7" t="s">
         <v>28</v>
       </c>
@@ -1079,7 +1086,9 @@
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D36" s="7" t="s">
         <v>28</v>
       </c>
@@ -1089,7 +1098,9 @@
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D37" s="7" t="s">
         <v>28</v>
       </c>
@@ -1099,7 +1110,9 @@
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D38" s="7" t="s">
         <v>28</v>
       </c>
@@ -1109,7 +1122,9 @@
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D39" s="7" t="s">
         <v>28</v>
       </c>
@@ -1119,7 +1134,9 @@
       <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D40" s="7" t="s">
         <v>28</v>
       </c>
@@ -1129,7 +1146,9 @@
       <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D41" s="7" t="s">
         <v>28</v>
       </c>
@@ -1139,7 +1158,9 @@
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -1149,7 +1170,9 @@
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D43" s="7" t="s">
         <v>28</v>
       </c>
@@ -1159,7 +1182,9 @@
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D44" s="7" t="s">
         <v>28</v>
       </c>
@@ -1169,7 +1194,9 @@
       <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D45" s="7" t="s">
         <v>28</v>
       </c>
@@ -1179,7 +1206,9 @@
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D46" s="7" t="s">
         <v>28</v>
       </c>
@@ -1189,7 +1218,9 @@
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D47" s="7" t="s">
         <v>28</v>
       </c>
@@ -1199,7 +1230,9 @@
       <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D48" s="7" t="s">
         <v>28</v>
       </c>
@@ -1209,7 +1242,9 @@
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D49" s="7" t="s">
         <v>28</v>
       </c>
@@ -1219,7 +1254,9 @@
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D50" s="7" t="s">
         <v>28</v>
       </c>
@@ -1231,7 +1268,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
